--- a/Census data - workings.xlsx
+++ b/Census data - workings.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\s0177A\datashare\seerad\fas\raw_data\prod2022\Reweighting - new methodology using R Package - template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\s0177A\datashare\seerad\fas\raw_data\prod2022\FBS_R_Weighting\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341648FA-DE09-432E-8708-B3DBF466F7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3528" yWindow="0" windowWidth="19200" windowHeight="7032" activeTab="1"/>
+    <workbookView xWindow="1188" yWindow="-108" windowWidth="21960" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CensusTotalsYYYY" sheetId="5" r:id="rId1"/>
@@ -21,10 +22,21 @@
   <definedNames>
     <definedName name="Holdings" localSheetId="4">'Farm Census Link'!$C$2:$L$25</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -198,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -276,19 +288,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,178 +582,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
-      <c r="B2">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="B3">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B4">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B5">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>47</v>
       </c>
-      <c r="B6">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>48</v>
       </c>
-      <c r="B7">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
-      <c r="B8">
-        <v>2986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>50</v>
       </c>
-      <c r="B9">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B10">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="B11">
-        <v>7024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="B12">
-        <v>1942</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13">
-        <v>257100.53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14">
-        <v>29931.73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15">
-        <v>26569.15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B16">
-        <v>95686.15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17">
-        <v>1044423.49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
-      <c r="B18">
-        <v>3684938.92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B19">
-        <v>173084</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B20">
-        <v>391767</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
-      </c>
-      <c r="B21">
-        <v>2283613</v>
       </c>
     </row>
   </sheetData>
@@ -750,11 +702,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -804,36 +756,6 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>765</v>
-      </c>
-      <c r="D2">
-        <v>51386.76</v>
-      </c>
-      <c r="E2">
-        <v>8507.0400000000009</v>
-      </c>
-      <c r="F2">
-        <v>475.03</v>
-      </c>
-      <c r="G2">
-        <v>25132.61</v>
-      </c>
-      <c r="H2">
-        <v>143506.94</v>
-      </c>
-      <c r="I2">
-        <v>546.79999999999995</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>2206</v>
-      </c>
-      <c r="L2">
-        <v>6988</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -842,36 +764,6 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>153</v>
-      </c>
-      <c r="D3">
-        <v>9595.1200000000008</v>
-      </c>
-      <c r="E3">
-        <v>1577.48</v>
-      </c>
-      <c r="F3">
-        <v>52.92</v>
-      </c>
-      <c r="G3">
-        <v>4646.57</v>
-      </c>
-      <c r="H3">
-        <v>25283.9</v>
-      </c>
-      <c r="I3">
-        <v>24825.25</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>912</v>
-      </c>
-      <c r="L3">
-        <v>2537</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -880,36 +772,6 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
-        <v>118</v>
-      </c>
-      <c r="D4">
-        <v>9410.9699999999993</v>
-      </c>
-      <c r="E4">
-        <v>1734.55</v>
-      </c>
-      <c r="F4">
-        <v>158.57</v>
-      </c>
-      <c r="G4">
-        <v>4939.45</v>
-      </c>
-      <c r="H4">
-        <v>33931.86</v>
-      </c>
-      <c r="I4">
-        <v>11166.8</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>725</v>
-      </c>
-      <c r="L4">
-        <v>2334</v>
-      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -918,36 +780,6 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>965</v>
-      </c>
-      <c r="D5">
-        <v>50123.39</v>
-      </c>
-      <c r="E5">
-        <v>5306.23</v>
-      </c>
-      <c r="F5">
-        <v>14973.07</v>
-      </c>
-      <c r="G5">
-        <v>26061.24</v>
-      </c>
-      <c r="H5">
-        <v>180138.01</v>
-      </c>
-      <c r="I5">
-        <v>355.46</v>
-      </c>
-      <c r="J5">
-        <v>21</v>
-      </c>
-      <c r="K5">
-        <v>6533</v>
-      </c>
-      <c r="L5">
-        <v>19081</v>
-      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -956,36 +788,6 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
-        <v>186</v>
-      </c>
-      <c r="D6">
-        <v>9396.58</v>
-      </c>
-      <c r="E6">
-        <v>1097.92</v>
-      </c>
-      <c r="F6">
-        <v>2727.57</v>
-      </c>
-      <c r="G6">
-        <v>5076.3599999999997</v>
-      </c>
-      <c r="H6">
-        <v>30511.81</v>
-      </c>
-      <c r="I6">
-        <v>29855.99</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>1691</v>
-      </c>
-      <c r="L6">
-        <v>3525</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -994,36 +796,6 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
-        <v>187</v>
-      </c>
-      <c r="D7">
-        <v>13091.88</v>
-      </c>
-      <c r="E7">
-        <v>1093.04</v>
-      </c>
-      <c r="F7">
-        <v>3391.11</v>
-      </c>
-      <c r="G7">
-        <v>6646.24</v>
-      </c>
-      <c r="H7">
-        <v>45746.44</v>
-      </c>
-      <c r="I7">
-        <v>16433</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>2400</v>
-      </c>
-      <c r="L7">
-        <v>7511</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1032,36 +804,6 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
-        <v>464</v>
-      </c>
-      <c r="D8">
-        <v>3833.06</v>
-      </c>
-      <c r="E8">
-        <v>141.43</v>
-      </c>
-      <c r="F8">
-        <v>82.37</v>
-      </c>
-      <c r="G8">
-        <v>2048.2199999999998</v>
-      </c>
-      <c r="H8">
-        <v>74797.95</v>
-      </c>
-      <c r="I8">
-        <v>848.78</v>
-      </c>
-      <c r="J8">
-        <v>102766</v>
-      </c>
-      <c r="K8">
-        <v>1380</v>
-      </c>
-      <c r="L8">
-        <v>12045</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1070,36 +812,6 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
-        <v>68</v>
-      </c>
-      <c r="D9">
-        <v>986.18</v>
-      </c>
-      <c r="E9">
-        <v>18.670000000000002</v>
-      </c>
-      <c r="F9">
-        <v>39.909999999999997</v>
-      </c>
-      <c r="G9">
-        <v>259.97000000000003</v>
-      </c>
-      <c r="H9">
-        <v>10447.36</v>
-      </c>
-      <c r="I9">
-        <v>10209.75</v>
-      </c>
-      <c r="J9">
-        <v>14036</v>
-      </c>
-      <c r="K9">
-        <v>200</v>
-      </c>
-      <c r="L9">
-        <v>2147</v>
-      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1108,36 +820,6 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
-        <v>90</v>
-      </c>
-      <c r="D10">
-        <v>1545.21</v>
-      </c>
-      <c r="E10">
-        <v>116.87</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>896.17</v>
-      </c>
-      <c r="H10">
-        <v>21777.18</v>
-      </c>
-      <c r="I10">
-        <v>8207.8700000000008</v>
-      </c>
-      <c r="J10">
-        <v>26594</v>
-      </c>
-      <c r="K10">
-        <v>451</v>
-      </c>
-      <c r="L10">
-        <v>5418</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1146,36 +828,6 @@
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
-        <v>892</v>
-      </c>
-      <c r="D11">
-        <v>1078.32</v>
-      </c>
-      <c r="E11">
-        <v>153.43</v>
-      </c>
-      <c r="F11">
-        <v>1.74</v>
-      </c>
-      <c r="G11">
-        <v>40.47</v>
-      </c>
-      <c r="H11">
-        <v>841560.4</v>
-      </c>
-      <c r="I11">
-        <v>8051.38</v>
-      </c>
-      <c r="J11">
-        <v>37</v>
-      </c>
-      <c r="K11">
-        <v>3241</v>
-      </c>
-      <c r="L11">
-        <v>482357</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1184,36 +836,6 @@
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
-        <v>439</v>
-      </c>
-      <c r="D12">
-        <v>168.57</v>
-      </c>
-      <c r="E12">
-        <v>25.77</v>
-      </c>
-      <c r="F12">
-        <v>0.13</v>
-      </c>
-      <c r="G12">
-        <v>0.67</v>
-      </c>
-      <c r="H12">
-        <v>292726.63</v>
-      </c>
-      <c r="I12">
-        <v>289131.17</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12">
-        <v>2185</v>
-      </c>
-      <c r="L12">
-        <v>239391</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1222,36 +844,6 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
-        <v>236</v>
-      </c>
-      <c r="D13">
-        <v>230.21</v>
-      </c>
-      <c r="E13">
-        <v>47.67</v>
-      </c>
-      <c r="F13">
-        <v>0.03</v>
-      </c>
-      <c r="G13">
-        <v>7.46</v>
-      </c>
-      <c r="H13">
-        <v>169161.14</v>
-      </c>
-      <c r="I13">
-        <v>87321.98</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="K13">
-        <v>2080</v>
-      </c>
-      <c r="L13">
-        <v>147178</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1260,36 +852,6 @@
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14">
-        <v>2043</v>
-      </c>
-      <c r="D14">
-        <v>13441.93</v>
-      </c>
-      <c r="E14">
-        <v>678.66</v>
-      </c>
-      <c r="F14">
-        <v>118.34</v>
-      </c>
-      <c r="G14">
-        <v>824.13</v>
-      </c>
-      <c r="H14">
-        <v>496156.93</v>
-      </c>
-      <c r="I14">
-        <v>1428.92</v>
-      </c>
-      <c r="J14">
-        <v>15064</v>
-      </c>
-      <c r="K14">
-        <v>142834</v>
-      </c>
-      <c r="L14">
-        <v>285538</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1298,36 +860,6 @@
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
-        <v>471</v>
-      </c>
-      <c r="D15">
-        <v>3898.79</v>
-      </c>
-      <c r="E15">
-        <v>206.34</v>
-      </c>
-      <c r="F15">
-        <v>16.46</v>
-      </c>
-      <c r="G15">
-        <v>134.80000000000001</v>
-      </c>
-      <c r="H15">
-        <v>138846.15</v>
-      </c>
-      <c r="I15">
-        <v>138376.73000000001</v>
-      </c>
-      <c r="J15">
-        <v>1136</v>
-      </c>
-      <c r="K15">
-        <v>36599</v>
-      </c>
-      <c r="L15">
-        <v>76641</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1336,377 +868,77 @@
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16">
-        <v>472</v>
-      </c>
-      <c r="D16">
-        <v>5250.64</v>
-      </c>
-      <c r="E16">
-        <v>425.35</v>
-      </c>
-      <c r="F16">
-        <v>38.869999999999997</v>
-      </c>
-      <c r="G16">
-        <v>249.05</v>
-      </c>
-      <c r="H16">
-        <v>129194.03</v>
-      </c>
-      <c r="I16">
-        <v>58067.53</v>
-      </c>
-      <c r="J16">
-        <v>3388</v>
-      </c>
-      <c r="K16">
-        <v>45330</v>
-      </c>
-      <c r="L16">
-        <v>91957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C17">
-        <v>540</v>
-      </c>
-      <c r="D17">
-        <v>1539.45</v>
-      </c>
-      <c r="E17">
-        <v>198.45</v>
-      </c>
-      <c r="F17">
-        <v>14.33</v>
-      </c>
-      <c r="G17">
-        <v>139.52000000000001</v>
-      </c>
-      <c r="H17">
-        <v>331506.81</v>
-      </c>
-      <c r="I17">
-        <v>191.1</v>
-      </c>
-      <c r="J17">
-        <v>46</v>
-      </c>
-      <c r="K17">
-        <v>26176</v>
-      </c>
-      <c r="L17">
-        <v>305734</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C18">
-        <v>315</v>
-      </c>
-      <c r="D18">
-        <v>910.56</v>
-      </c>
-      <c r="E18">
-        <v>36.83</v>
-      </c>
-      <c r="F18">
-        <v>0.54</v>
-      </c>
-      <c r="G18">
-        <v>54.33</v>
-      </c>
-      <c r="H18">
-        <v>204314.99</v>
-      </c>
-      <c r="I18">
-        <v>203029.67</v>
-      </c>
-      <c r="J18">
-        <v>33</v>
-      </c>
-      <c r="K18">
-        <v>15445</v>
-      </c>
-      <c r="L18">
-        <v>180230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C19">
-        <v>209</v>
-      </c>
-      <c r="D19">
-        <v>678.74</v>
-      </c>
-      <c r="E19">
-        <v>91.19</v>
-      </c>
-      <c r="F19">
-        <v>1.97</v>
-      </c>
-      <c r="G19">
-        <v>17.760000000000002</v>
-      </c>
-      <c r="H19">
-        <v>146529.49</v>
-      </c>
-      <c r="I19">
-        <v>74919.399999999994</v>
-      </c>
-      <c r="J19">
-        <v>26</v>
-      </c>
-      <c r="K19">
-        <v>11472</v>
-      </c>
-      <c r="L19">
-        <v>140252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C20">
-        <v>558</v>
-      </c>
-      <c r="D20">
-        <v>8513.4500000000007</v>
-      </c>
-      <c r="E20">
-        <v>368.75</v>
-      </c>
-      <c r="F20">
-        <v>49.45</v>
-      </c>
-      <c r="G20">
-        <v>636.30999999999995</v>
-      </c>
-      <c r="H20">
-        <v>58372.42</v>
-      </c>
-      <c r="I20">
-        <v>412.51</v>
-      </c>
-      <c r="J20">
-        <v>4293</v>
-      </c>
-      <c r="K20">
-        <v>22890</v>
-      </c>
-      <c r="L20">
-        <v>81592</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="C21">
-        <v>114</v>
-      </c>
-      <c r="D21">
-        <v>1290.1500000000001</v>
-      </c>
-      <c r="E21">
-        <v>192.1</v>
-      </c>
-      <c r="F21">
-        <v>21.94</v>
-      </c>
-      <c r="G21">
-        <v>84.51</v>
-      </c>
-      <c r="H21">
-        <v>10213.780000000001</v>
-      </c>
-      <c r="I21">
-        <v>10183.129999999999</v>
-      </c>
-      <c r="J21">
-        <v>438</v>
-      </c>
-      <c r="K21">
-        <v>4866</v>
-      </c>
-      <c r="L21">
-        <v>23635</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="C22">
-        <v>113</v>
-      </c>
-      <c r="D22">
-        <v>3638.29</v>
-      </c>
-      <c r="E22">
-        <v>257.16000000000003</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>278.62</v>
-      </c>
-      <c r="H22">
-        <v>17263.25</v>
-      </c>
-      <c r="I22">
-        <v>6154.4</v>
-      </c>
-      <c r="J22">
-        <v>936</v>
-      </c>
-      <c r="K22">
-        <v>6085</v>
-      </c>
-      <c r="L22">
-        <v>24001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="C23">
-        <v>797</v>
-      </c>
-      <c r="D23">
-        <v>40536.74</v>
-      </c>
-      <c r="E23">
-        <v>4800.6899999999996</v>
-      </c>
-      <c r="F23">
-        <v>2594.1799999999998</v>
-      </c>
-      <c r="G23">
-        <v>11127.43</v>
-      </c>
-      <c r="H23">
-        <v>180810.21</v>
-      </c>
-      <c r="I23">
-        <v>332.46</v>
-      </c>
-      <c r="J23">
-        <v>2775</v>
-      </c>
-      <c r="K23">
-        <v>32248</v>
-      </c>
-      <c r="L23">
-        <v>85108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="C24">
-        <v>196</v>
-      </c>
-      <c r="D24">
-        <v>10904.03</v>
-      </c>
-      <c r="E24">
-        <v>1190.5899999999999</v>
-      </c>
-      <c r="F24">
-        <v>616.48</v>
-      </c>
-      <c r="G24">
-        <v>2268.92</v>
-      </c>
-      <c r="H24">
-        <v>41071.83</v>
-      </c>
-      <c r="I24">
-        <v>39275.75</v>
-      </c>
-      <c r="J24">
-        <v>171</v>
-      </c>
-      <c r="K24">
-        <v>9520</v>
-      </c>
-      <c r="L24">
-        <v>28363</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
-      </c>
-      <c r="C25">
-        <v>220</v>
-      </c>
-      <c r="D25">
-        <v>15651.51</v>
-      </c>
-      <c r="E25">
-        <v>1665.52</v>
-      </c>
-      <c r="F25">
-        <v>1194.1400000000001</v>
-      </c>
-      <c r="G25">
-        <v>4115.34</v>
-      </c>
-      <c r="H25">
-        <v>61069.41</v>
-      </c>
-      <c r="I25">
-        <v>25097.66</v>
-      </c>
-      <c r="J25">
-        <v>1309</v>
-      </c>
-      <c r="K25">
-        <v>14298</v>
-      </c>
-      <c r="L25">
-        <v>30050</v>
       </c>
     </row>
   </sheetData>
@@ -1715,7 +947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -1739,7 +971,7 @@
       </c>
       <c r="B2">
         <f>'Census Data'!B8</f>
-        <v>1036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1748,7 +980,7 @@
       </c>
       <c r="B3">
         <f>'Census Data'!B26</f>
-        <v>622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1757,7 +989,7 @@
       </c>
       <c r="B4">
         <f>'Census Data'!B17</f>
-        <v>1338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1766,7 +998,7 @@
       </c>
       <c r="B5">
         <f>'Census Data'!B62</f>
-        <v>785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1775,7 +1007,7 @@
       </c>
       <c r="B6">
         <f>'Census Data'!B71</f>
-        <v>1213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1784,7 +1016,7 @@
       </c>
       <c r="B7">
         <f>'Census Data'!B53</f>
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1793,7 +1025,7 @@
       </c>
       <c r="B8">
         <f>'Census Data'!B44</f>
-        <v>2986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1802,7 +1034,7 @@
       </c>
       <c r="B9">
         <f>'Census Data'!B35</f>
-        <v>1567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1811,7 +1043,7 @@
       </c>
       <c r="B10">
         <f>'Census Data'!B79</f>
-        <v>1645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1820,7 +1052,7 @@
       </c>
       <c r="B11">
         <f>'Census Data'!B77</f>
-        <v>7024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1829,7 +1061,7 @@
       </c>
       <c r="B12">
         <f>'Census Data'!B78</f>
-        <v>1942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1838,7 +1070,7 @@
       </c>
       <c r="B13" s="1">
         <f>'Census Data'!C80</f>
-        <v>257100.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1847,7 +1079,7 @@
       </c>
       <c r="B14" s="1">
         <f>'Census Data'!E80</f>
-        <v>29931.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1856,7 +1088,7 @@
       </c>
       <c r="B15" s="1">
         <f>'Census Data'!G80</f>
-        <v>26569.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1865,7 +1097,7 @@
       </c>
       <c r="B16" s="1">
         <f>'Census Data'!I80</f>
-        <v>95686.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1874,7 +1106,7 @@
       </c>
       <c r="B17" s="1">
         <f>'Census Data'!M80</f>
-        <v>1044423.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1883,7 +1115,7 @@
       </c>
       <c r="B18" s="1">
         <f>'Census Data'!K80</f>
-        <v>3684938.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1892,7 +1124,7 @@
       </c>
       <c r="B19" s="1">
         <f>'Census Data'!O80</f>
-        <v>173084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1901,7 +1133,7 @@
       </c>
       <c r="B20" s="1">
         <f>'Census Data'!Q80</f>
-        <v>391767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1910,7 +1142,7 @@
       </c>
       <c r="B21" s="1">
         <f>'Census Data'!S80</f>
-        <v>2283613</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1919,7 +1151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -1981,43 +1213,43 @@
       </c>
       <c r="C2" s="4">
         <f>'Census Data'!B5</f>
-        <v>765</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
         <f>'Census Data'!C5</f>
-        <v>51386.76</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5">
         <f>'Census Data'!E5</f>
-        <v>8507.0400000000009</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5">
         <f>'Census Data'!G5</f>
-        <v>475.03</v>
+        <v>0</v>
       </c>
       <c r="G2" s="5">
         <f>'Census Data'!I5</f>
-        <v>25132.61</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
         <f>'Census Data'!K5</f>
-        <v>143506.94</v>
+        <v>0</v>
       </c>
       <c r="I2" s="5">
         <f>'Census Data'!M5</f>
-        <v>546.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="J2" s="6">
         <f>'Census Data'!O5</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K2" s="6">
         <f>'Census Data'!Q5</f>
-        <v>2206</v>
+        <v>0</v>
       </c>
       <c r="L2" s="6">
         <f>'Census Data'!S5</f>
-        <v>6988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2029,31 +1261,31 @@
       </c>
       <c r="C3" s="4">
         <f>'Census Data'!B6</f>
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5">
         <f>'Census Data'!C6</f>
-        <v>9595.1200000000008</v>
+        <v>0</v>
       </c>
       <c r="E3" s="5">
         <f>'Census Data'!E6</f>
-        <v>1577.48</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <f>'Census Data'!G6</f>
-        <v>52.92</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
         <f>'Census Data'!I6</f>
-        <v>4646.57</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5">
         <f>'Census Data'!K6</f>
-        <v>25283.9</v>
+        <v>0</v>
       </c>
       <c r="I3" s="5">
         <f>'Census Data'!M6</f>
-        <v>24825.25</v>
+        <v>0</v>
       </c>
       <c r="J3" s="6">
         <f>'Census Data'!O6</f>
@@ -2061,11 +1293,11 @@
       </c>
       <c r="K3" s="6">
         <f>'Census Data'!Q6</f>
-        <v>912</v>
+        <v>0</v>
       </c>
       <c r="L3" s="6">
         <f>'Census Data'!S6</f>
-        <v>2537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2077,43 +1309,43 @@
       </c>
       <c r="C4" s="7">
         <f>'Census Data'!B7</f>
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="D4" s="8">
         <f>'Census Data'!C7</f>
-        <v>9410.9699999999993</v>
+        <v>0</v>
       </c>
       <c r="E4" s="8">
         <f>'Census Data'!E7</f>
-        <v>1734.55</v>
+        <v>0</v>
       </c>
       <c r="F4" s="8">
         <f>'Census Data'!G7</f>
-        <v>158.57</v>
+        <v>0</v>
       </c>
       <c r="G4" s="8">
         <f>'Census Data'!I7</f>
-        <v>4939.45</v>
+        <v>0</v>
       </c>
       <c r="H4" s="8">
         <f>'Census Data'!K7</f>
-        <v>33931.86</v>
+        <v>0</v>
       </c>
       <c r="I4" s="8">
         <f>'Census Data'!M7</f>
-        <v>11166.8</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
         <f>'Census Data'!O7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
         <f>'Census Data'!Q7</f>
-        <v>725</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9">
         <f>'Census Data'!S7</f>
-        <v>2334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2125,43 +1357,43 @@
       </c>
       <c r="C5" s="4">
         <f>'Census Data'!B14</f>
-        <v>965</v>
+        <v>0</v>
       </c>
       <c r="D5" s="5">
         <f>'Census Data'!C14</f>
-        <v>50123.39</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5">
         <f>'Census Data'!E14</f>
-        <v>5306.23</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
         <f>'Census Data'!G14</f>
-        <v>14973.07</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5">
         <f>'Census Data'!I14</f>
-        <v>26061.24</v>
+        <v>0</v>
       </c>
       <c r="H5" s="5">
         <f>'Census Data'!K14</f>
-        <v>180138.01</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5">
         <f>'Census Data'!M14</f>
-        <v>355.46</v>
+        <v>0</v>
       </c>
       <c r="J5" s="6">
         <f>'Census Data'!O14</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K5" s="6">
         <f>'Census Data'!Q14</f>
-        <v>6533</v>
+        <v>0</v>
       </c>
       <c r="L5" s="6">
         <f>'Census Data'!S14</f>
-        <v>19081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2173,43 +1405,43 @@
       </c>
       <c r="C6" s="4">
         <f>'Census Data'!B15</f>
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="D6" s="5">
         <f>'Census Data'!C15</f>
-        <v>9396.58</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5">
         <f>'Census Data'!E15</f>
-        <v>1097.92</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5">
         <f>'Census Data'!G15</f>
-        <v>2727.57</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
         <f>'Census Data'!I15</f>
-        <v>5076.3599999999997</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5">
         <f>'Census Data'!K15</f>
-        <v>30511.81</v>
+        <v>0</v>
       </c>
       <c r="I6" s="5">
         <f>'Census Data'!M15</f>
-        <v>29855.99</v>
+        <v>0</v>
       </c>
       <c r="J6" s="6">
         <f>'Census Data'!O15</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" s="6">
         <f>'Census Data'!Q15</f>
-        <v>1691</v>
+        <v>0</v>
       </c>
       <c r="L6" s="6">
         <f>'Census Data'!S15</f>
-        <v>3525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -2221,43 +1453,43 @@
       </c>
       <c r="C7" s="7">
         <f>'Census Data'!B16</f>
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="D7" s="8">
         <f>'Census Data'!C16</f>
-        <v>13091.88</v>
+        <v>0</v>
       </c>
       <c r="E7" s="8">
         <f>'Census Data'!E16</f>
-        <v>1093.04</v>
+        <v>0</v>
       </c>
       <c r="F7" s="8">
         <f>'Census Data'!G16</f>
-        <v>3391.11</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8">
         <f>'Census Data'!I16</f>
-        <v>6646.24</v>
+        <v>0</v>
       </c>
       <c r="H7" s="8">
         <f>'Census Data'!K16</f>
-        <v>45746.44</v>
+        <v>0</v>
       </c>
       <c r="I7" s="8">
         <f>'Census Data'!M16</f>
-        <v>16433</v>
+        <v>0</v>
       </c>
       <c r="J7" s="9">
         <f>'Census Data'!O16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="9">
         <f>'Census Data'!Q16</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="L7" s="9">
         <f>'Census Data'!S16</f>
-        <v>7511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -2269,43 +1501,43 @@
       </c>
       <c r="C8" s="4">
         <f>'Census Data'!B23</f>
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="D8" s="5">
         <f>'Census Data'!C23</f>
-        <v>3833.06</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5">
         <f>'Census Data'!E23</f>
-        <v>141.43</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5">
         <f>'Census Data'!G23</f>
-        <v>82.37</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
         <f>'Census Data'!I23</f>
-        <v>2048.2199999999998</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
         <f>'Census Data'!K23</f>
-        <v>74797.95</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5">
         <f>'Census Data'!M23</f>
-        <v>848.78</v>
+        <v>0</v>
       </c>
       <c r="J8" s="6">
         <f>'Census Data'!O23</f>
-        <v>102766</v>
+        <v>0</v>
       </c>
       <c r="K8" s="6">
         <f>'Census Data'!Q23</f>
-        <v>1380</v>
+        <v>0</v>
       </c>
       <c r="L8" s="6">
         <f>'Census Data'!S23</f>
-        <v>12045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2317,43 +1549,43 @@
       </c>
       <c r="C9" s="4">
         <f>'Census Data'!B24</f>
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D9" s="5">
         <f>'Census Data'!C24</f>
-        <v>986.18</v>
+        <v>0</v>
       </c>
       <c r="E9" s="5">
         <f>'Census Data'!E24</f>
-        <v>18.670000000000002</v>
+        <v>0</v>
       </c>
       <c r="F9" s="5">
         <f>'Census Data'!G24</f>
-        <v>39.909999999999997</v>
+        <v>0</v>
       </c>
       <c r="G9" s="5">
         <f>'Census Data'!I24</f>
-        <v>259.97000000000003</v>
+        <v>0</v>
       </c>
       <c r="H9" s="5">
         <f>'Census Data'!K24</f>
-        <v>10447.36</v>
+        <v>0</v>
       </c>
       <c r="I9" s="5">
         <f>'Census Data'!M24</f>
-        <v>10209.75</v>
+        <v>0</v>
       </c>
       <c r="J9" s="6">
         <f>'Census Data'!O24</f>
-        <v>14036</v>
+        <v>0</v>
       </c>
       <c r="K9" s="6">
         <f>'Census Data'!Q24</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L9" s="6">
         <f>'Census Data'!S24</f>
-        <v>2147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2365,15 +1597,15 @@
       </c>
       <c r="C10" s="7">
         <f>'Census Data'!B25</f>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D10" s="8">
         <f>'Census Data'!C25</f>
-        <v>1545.21</v>
+        <v>0</v>
       </c>
       <c r="E10" s="8">
         <f>'Census Data'!E25</f>
-        <v>116.87</v>
+        <v>0</v>
       </c>
       <c r="F10" s="8">
         <f>'Census Data'!G25</f>
@@ -2381,27 +1613,27 @@
       </c>
       <c r="G10" s="8">
         <f>'Census Data'!I25</f>
-        <v>896.17</v>
+        <v>0</v>
       </c>
       <c r="H10" s="8">
         <f>'Census Data'!K25</f>
-        <v>21777.18</v>
+        <v>0</v>
       </c>
       <c r="I10" s="8">
         <f>'Census Data'!M25</f>
-        <v>8207.8700000000008</v>
+        <v>0</v>
       </c>
       <c r="J10" s="9">
         <f>'Census Data'!O25</f>
-        <v>26594</v>
+        <v>0</v>
       </c>
       <c r="K10" s="9">
         <f>'Census Data'!Q25</f>
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="L10" s="9">
         <f>'Census Data'!S25</f>
-        <v>5418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -2413,43 +1645,43 @@
       </c>
       <c r="C11" s="4">
         <f>'Census Data'!B32</f>
-        <v>892</v>
+        <v>0</v>
       </c>
       <c r="D11" s="5">
         <f>'Census Data'!C32</f>
-        <v>1078.32</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5">
         <f>'Census Data'!E32</f>
-        <v>153.43</v>
+        <v>0</v>
       </c>
       <c r="F11" s="5">
         <f>'Census Data'!G32</f>
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="G11" s="5">
         <f>'Census Data'!I32</f>
-        <v>40.47</v>
+        <v>0</v>
       </c>
       <c r="H11" s="5">
         <f>'Census Data'!K32</f>
-        <v>841560.4</v>
+        <v>0</v>
       </c>
       <c r="I11" s="5">
         <f>'Census Data'!M32</f>
-        <v>8051.38</v>
+        <v>0</v>
       </c>
       <c r="J11" s="6">
         <f>'Census Data'!O32</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K11" s="6">
         <f>'Census Data'!Q32</f>
-        <v>3241</v>
+        <v>0</v>
       </c>
       <c r="L11" s="6">
         <f>'Census Data'!S32</f>
-        <v>482357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2461,43 +1693,43 @@
       </c>
       <c r="C12" s="4">
         <f>'Census Data'!B33</f>
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="D12" s="5">
         <f>'Census Data'!C33</f>
-        <v>168.57</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5">
         <f>'Census Data'!E33</f>
-        <v>25.77</v>
+        <v>0</v>
       </c>
       <c r="F12" s="5">
         <f>'Census Data'!G33</f>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="G12" s="5">
         <f>'Census Data'!I33</f>
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H12" s="5">
         <f>'Census Data'!K33</f>
-        <v>292726.63</v>
+        <v>0</v>
       </c>
       <c r="I12" s="5">
         <f>'Census Data'!M33</f>
-        <v>289131.17</v>
+        <v>0</v>
       </c>
       <c r="J12" s="6">
         <f>'Census Data'!O33</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K12" s="6">
         <f>'Census Data'!Q33</f>
-        <v>2185</v>
+        <v>0</v>
       </c>
       <c r="L12" s="6">
         <f>'Census Data'!S33</f>
-        <v>239391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -2509,43 +1741,43 @@
       </c>
       <c r="C13" s="7">
         <f>'Census Data'!B34</f>
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="D13" s="8">
         <f>'Census Data'!C34</f>
-        <v>230.21</v>
+        <v>0</v>
       </c>
       <c r="E13" s="8">
         <f>'Census Data'!E34</f>
-        <v>47.67</v>
+        <v>0</v>
       </c>
       <c r="F13" s="8">
         <f>'Census Data'!G34</f>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G13" s="8">
         <f>'Census Data'!I34</f>
-        <v>7.46</v>
+        <v>0</v>
       </c>
       <c r="H13" s="8">
         <f>'Census Data'!K34</f>
-        <v>169161.14</v>
+        <v>0</v>
       </c>
       <c r="I13" s="8">
         <f>'Census Data'!M34</f>
-        <v>87321.98</v>
+        <v>0</v>
       </c>
       <c r="J13" s="9">
         <f>'Census Data'!O34</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K13" s="9">
         <f>'Census Data'!Q34</f>
-        <v>2080</v>
+        <v>0</v>
       </c>
       <c r="L13" s="9">
         <f>'Census Data'!S34</f>
-        <v>147178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -2557,43 +1789,43 @@
       </c>
       <c r="C14" s="4">
         <f>'Census Data'!B41</f>
-        <v>2043</v>
+        <v>0</v>
       </c>
       <c r="D14" s="5">
         <f>'Census Data'!C41</f>
-        <v>13441.93</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5">
         <f>'Census Data'!E41</f>
-        <v>678.66</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5">
         <f>'Census Data'!G41</f>
-        <v>118.34</v>
+        <v>0</v>
       </c>
       <c r="G14" s="5">
         <f>'Census Data'!I41</f>
-        <v>824.13</v>
+        <v>0</v>
       </c>
       <c r="H14" s="5">
         <f>'Census Data'!K41</f>
-        <v>496156.93</v>
+        <v>0</v>
       </c>
       <c r="I14" s="5">
         <f>'Census Data'!M41</f>
-        <v>1428.92</v>
+        <v>0</v>
       </c>
       <c r="J14" s="6">
         <f>'Census Data'!O41</f>
-        <v>15064</v>
+        <v>0</v>
       </c>
       <c r="K14" s="6">
         <f>'Census Data'!Q41</f>
-        <v>142834</v>
+        <v>0</v>
       </c>
       <c r="L14" s="6">
         <f>'Census Data'!S41</f>
-        <v>285538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -2605,43 +1837,43 @@
       </c>
       <c r="C15" s="4">
         <f>'Census Data'!B42</f>
-        <v>471</v>
+        <v>0</v>
       </c>
       <c r="D15" s="5">
         <f>'Census Data'!C42</f>
-        <v>3898.79</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5">
         <f>'Census Data'!E42</f>
-        <v>206.34</v>
+        <v>0</v>
       </c>
       <c r="F15" s="5">
         <f>'Census Data'!G42</f>
-        <v>16.46</v>
+        <v>0</v>
       </c>
       <c r="G15" s="5">
         <f>'Census Data'!I42</f>
-        <v>134.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="H15" s="5">
         <f>'Census Data'!K42</f>
-        <v>138846.15</v>
+        <v>0</v>
       </c>
       <c r="I15" s="5">
         <f>'Census Data'!M42</f>
-        <v>138376.73000000001</v>
+        <v>0</v>
       </c>
       <c r="J15" s="6">
         <f>'Census Data'!O42</f>
-        <v>1136</v>
+        <v>0</v>
       </c>
       <c r="K15" s="6">
         <f>'Census Data'!Q42</f>
-        <v>36599</v>
+        <v>0</v>
       </c>
       <c r="L15" s="6">
         <f>'Census Data'!S42</f>
-        <v>76641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -2653,43 +1885,43 @@
       </c>
       <c r="C16" s="7">
         <f>'Census Data'!B43</f>
-        <v>472</v>
+        <v>0</v>
       </c>
       <c r="D16" s="8">
         <f>'Census Data'!C43</f>
-        <v>5250.64</v>
+        <v>0</v>
       </c>
       <c r="E16" s="8">
         <f>'Census Data'!E43</f>
-        <v>425.35</v>
+        <v>0</v>
       </c>
       <c r="F16" s="8">
         <f>'Census Data'!G43</f>
-        <v>38.869999999999997</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8">
         <f>'Census Data'!I43</f>
-        <v>249.05</v>
+        <v>0</v>
       </c>
       <c r="H16" s="8">
         <f>'Census Data'!K43</f>
-        <v>129194.03</v>
+        <v>0</v>
       </c>
       <c r="I16" s="8">
         <f>'Census Data'!M43</f>
-        <v>58067.53</v>
+        <v>0</v>
       </c>
       <c r="J16" s="9">
         <f>'Census Data'!O43</f>
-        <v>3388</v>
+        <v>0</v>
       </c>
       <c r="K16" s="9">
         <f>'Census Data'!Q43</f>
-        <v>45330</v>
+        <v>0</v>
       </c>
       <c r="L16" s="9">
         <f>'Census Data'!S43</f>
-        <v>91957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -2701,43 +1933,43 @@
       </c>
       <c r="C17" s="4">
         <f>'Census Data'!B50</f>
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="D17" s="5">
         <f>'Census Data'!C50</f>
-        <v>1539.45</v>
+        <v>0</v>
       </c>
       <c r="E17" s="5">
         <f>'Census Data'!E50</f>
-        <v>198.45</v>
+        <v>0</v>
       </c>
       <c r="F17" s="5">
         <f>'Census Data'!G50</f>
-        <v>14.33</v>
+        <v>0</v>
       </c>
       <c r="G17" s="5">
         <f>'Census Data'!I50</f>
-        <v>139.52000000000001</v>
+        <v>0</v>
       </c>
       <c r="H17" s="5">
         <f>'Census Data'!K50</f>
-        <v>331506.81</v>
+        <v>0</v>
       </c>
       <c r="I17" s="5">
         <f>'Census Data'!M50</f>
-        <v>191.1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="6">
         <f>'Census Data'!O50</f>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="K17" s="6">
         <f>'Census Data'!Q50</f>
-        <v>26176</v>
+        <v>0</v>
       </c>
       <c r="L17" s="6">
         <f>'Census Data'!S50</f>
-        <v>305734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -2749,43 +1981,43 @@
       </c>
       <c r="C18" s="4">
         <f>'Census Data'!B51</f>
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="D18" s="5">
         <f>'Census Data'!C51</f>
-        <v>910.56</v>
+        <v>0</v>
       </c>
       <c r="E18" s="5">
         <f>'Census Data'!E51</f>
-        <v>36.83</v>
+        <v>0</v>
       </c>
       <c r="F18" s="5">
         <f>'Census Data'!G51</f>
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="G18" s="5">
         <f>'Census Data'!I51</f>
-        <v>54.33</v>
+        <v>0</v>
       </c>
       <c r="H18" s="5">
         <f>'Census Data'!K51</f>
-        <v>204314.99</v>
+        <v>0</v>
       </c>
       <c r="I18" s="5">
         <f>'Census Data'!M51</f>
-        <v>203029.67</v>
+        <v>0</v>
       </c>
       <c r="J18" s="6">
         <f>'Census Data'!O51</f>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K18" s="6">
         <f>'Census Data'!Q51</f>
-        <v>15445</v>
+        <v>0</v>
       </c>
       <c r="L18" s="6">
         <f>'Census Data'!S51</f>
-        <v>180230</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -2797,43 +2029,43 @@
       </c>
       <c r="C19" s="7">
         <f>'Census Data'!B52</f>
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="D19" s="8">
         <f>'Census Data'!C52</f>
-        <v>678.74</v>
+        <v>0</v>
       </c>
       <c r="E19" s="8">
         <f>'Census Data'!E52</f>
-        <v>91.19</v>
+        <v>0</v>
       </c>
       <c r="F19" s="8">
         <f>'Census Data'!G52</f>
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="G19" s="8">
         <f>'Census Data'!I52</f>
-        <v>17.760000000000002</v>
+        <v>0</v>
       </c>
       <c r="H19" s="8">
         <f>'Census Data'!K52</f>
-        <v>146529.49</v>
+        <v>0</v>
       </c>
       <c r="I19" s="8">
         <f>'Census Data'!M52</f>
-        <v>74919.399999999994</v>
+        <v>0</v>
       </c>
       <c r="J19" s="9">
         <f>'Census Data'!O52</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="K19" s="9">
         <f>'Census Data'!Q52</f>
-        <v>11472</v>
+        <v>0</v>
       </c>
       <c r="L19" s="9">
         <f>'Census Data'!S52</f>
-        <v>140252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -2845,43 +2077,43 @@
       </c>
       <c r="C20" s="4">
         <f>'Census Data'!B59</f>
-        <v>558</v>
+        <v>0</v>
       </c>
       <c r="D20" s="5">
         <f>'Census Data'!C59</f>
-        <v>8513.4500000000007</v>
+        <v>0</v>
       </c>
       <c r="E20" s="5">
         <f>'Census Data'!E59</f>
-        <v>368.75</v>
+        <v>0</v>
       </c>
       <c r="F20" s="5">
         <f>'Census Data'!G59</f>
-        <v>49.45</v>
+        <v>0</v>
       </c>
       <c r="G20" s="5">
         <f>'Census Data'!I59</f>
-        <v>636.30999999999995</v>
+        <v>0</v>
       </c>
       <c r="H20" s="5">
         <f>'Census Data'!K59</f>
-        <v>58372.42</v>
+        <v>0</v>
       </c>
       <c r="I20" s="5">
         <f>'Census Data'!M59</f>
-        <v>412.51</v>
+        <v>0</v>
       </c>
       <c r="J20" s="6">
         <f>'Census Data'!O59</f>
-        <v>4293</v>
+        <v>0</v>
       </c>
       <c r="K20" s="6">
         <f>'Census Data'!Q59</f>
-        <v>22890</v>
+        <v>0</v>
       </c>
       <c r="L20" s="6">
         <f>'Census Data'!S59</f>
-        <v>81592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -2893,43 +2125,43 @@
       </c>
       <c r="C21" s="4">
         <f>'Census Data'!B60</f>
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="D21" s="5">
         <f>'Census Data'!C60</f>
-        <v>1290.1500000000001</v>
+        <v>0</v>
       </c>
       <c r="E21" s="5">
         <f>'Census Data'!E60</f>
-        <v>192.1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="5">
         <f>'Census Data'!G60</f>
-        <v>21.94</v>
+        <v>0</v>
       </c>
       <c r="G21" s="5">
         <f>'Census Data'!I60</f>
-        <v>84.51</v>
+        <v>0</v>
       </c>
       <c r="H21" s="5">
         <f>'Census Data'!K60</f>
-        <v>10213.780000000001</v>
+        <v>0</v>
       </c>
       <c r="I21" s="5">
         <f>'Census Data'!M60</f>
-        <v>10183.129999999999</v>
+        <v>0</v>
       </c>
       <c r="J21" s="6">
         <f>'Census Data'!O60</f>
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="K21" s="6">
         <f>'Census Data'!Q60</f>
-        <v>4866</v>
+        <v>0</v>
       </c>
       <c r="L21" s="6">
         <f>'Census Data'!S60</f>
-        <v>23635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -2941,15 +2173,15 @@
       </c>
       <c r="C22" s="7">
         <f>'Census Data'!B61</f>
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="D22" s="8">
         <f>'Census Data'!C61</f>
-        <v>3638.29</v>
+        <v>0</v>
       </c>
       <c r="E22" s="8">
         <f>'Census Data'!E61</f>
-        <v>257.16000000000003</v>
+        <v>0</v>
       </c>
       <c r="F22" s="8">
         <f>'Census Data'!G61</f>
@@ -2957,27 +2189,27 @@
       </c>
       <c r="G22" s="8">
         <f>'Census Data'!I61</f>
-        <v>278.62</v>
+        <v>0</v>
       </c>
       <c r="H22" s="8">
         <f>'Census Data'!K61</f>
-        <v>17263.25</v>
+        <v>0</v>
       </c>
       <c r="I22" s="8">
         <f>'Census Data'!M61</f>
-        <v>6154.4</v>
+        <v>0</v>
       </c>
       <c r="J22" s="9">
         <f>'Census Data'!O61</f>
-        <v>936</v>
+        <v>0</v>
       </c>
       <c r="K22" s="9">
         <f>'Census Data'!Q61</f>
-        <v>6085</v>
+        <v>0</v>
       </c>
       <c r="L22" s="9">
         <f>'Census Data'!S61</f>
-        <v>24001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -2989,43 +2221,43 @@
       </c>
       <c r="C23" s="4">
         <f>'Census Data'!B68</f>
-        <v>797</v>
+        <v>0</v>
       </c>
       <c r="D23" s="5">
         <f>'Census Data'!C68</f>
-        <v>40536.74</v>
+        <v>0</v>
       </c>
       <c r="E23" s="5">
         <f>'Census Data'!E68</f>
-        <v>4800.6899999999996</v>
+        <v>0</v>
       </c>
       <c r="F23" s="5">
         <f>'Census Data'!G68</f>
-        <v>2594.1799999999998</v>
+        <v>0</v>
       </c>
       <c r="G23" s="5">
         <f>'Census Data'!I68</f>
-        <v>11127.43</v>
+        <v>0</v>
       </c>
       <c r="H23" s="5">
         <f>'Census Data'!K68</f>
-        <v>180810.21</v>
+        <v>0</v>
       </c>
       <c r="I23" s="5">
         <f>'Census Data'!M68</f>
-        <v>332.46</v>
+        <v>0</v>
       </c>
       <c r="J23" s="6">
         <f>'Census Data'!O68</f>
-        <v>2775</v>
+        <v>0</v>
       </c>
       <c r="K23" s="6">
         <f>'Census Data'!Q68</f>
-        <v>32248</v>
+        <v>0</v>
       </c>
       <c r="L23" s="6">
         <f>'Census Data'!S68</f>
-        <v>85108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -3037,43 +2269,43 @@
       </c>
       <c r="C24" s="4">
         <f>'Census Data'!B69</f>
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="D24" s="5">
         <f>'Census Data'!C69</f>
-        <v>10904.03</v>
+        <v>0</v>
       </c>
       <c r="E24" s="5">
         <f>'Census Data'!E69</f>
-        <v>1190.5899999999999</v>
+        <v>0</v>
       </c>
       <c r="F24" s="5">
         <f>'Census Data'!G69</f>
-        <v>616.48</v>
+        <v>0</v>
       </c>
       <c r="G24" s="5">
         <f>'Census Data'!I69</f>
-        <v>2268.92</v>
+        <v>0</v>
       </c>
       <c r="H24" s="5">
         <f>'Census Data'!K69</f>
-        <v>41071.83</v>
+        <v>0</v>
       </c>
       <c r="I24" s="5">
         <f>'Census Data'!M69</f>
-        <v>39275.75</v>
+        <v>0</v>
       </c>
       <c r="J24" s="6">
         <f>'Census Data'!O69</f>
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="K24" s="6">
         <f>'Census Data'!Q69</f>
-        <v>9520</v>
+        <v>0</v>
       </c>
       <c r="L24" s="6">
         <f>'Census Data'!S69</f>
-        <v>28363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -3085,43 +2317,43 @@
       </c>
       <c r="C25" s="4">
         <f>'Census Data'!B70</f>
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="D25" s="5">
         <f>'Census Data'!C70</f>
-        <v>15651.51</v>
+        <v>0</v>
       </c>
       <c r="E25" s="5">
         <f>'Census Data'!E70</f>
-        <v>1665.52</v>
+        <v>0</v>
       </c>
       <c r="F25" s="5">
         <f>'Census Data'!G70</f>
-        <v>1194.1400000000001</v>
+        <v>0</v>
       </c>
       <c r="G25" s="5">
         <f>'Census Data'!I70</f>
-        <v>4115.34</v>
+        <v>0</v>
       </c>
       <c r="H25" s="5">
         <f>'Census Data'!K70</f>
-        <v>61069.41</v>
+        <v>0</v>
       </c>
       <c r="I25" s="5">
         <f>'Census Data'!M70</f>
-        <v>25097.66</v>
+        <v>0</v>
       </c>
       <c r="J25" s="6">
         <f>'Census Data'!O70</f>
-        <v>1309</v>
+        <v>0</v>
       </c>
       <c r="K25" s="6">
         <f>'Census Data'!Q70</f>
-        <v>14298</v>
+        <v>0</v>
       </c>
       <c r="L25" s="6">
         <f>'Census Data'!S70</f>
-        <v>30050</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3131,14 +2363,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77:S80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3309,237 +2541,93 @@
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="13">
-        <v>765</v>
-      </c>
-      <c r="C5" s="14">
-        <v>51386.76</v>
-      </c>
-      <c r="D5" s="13">
-        <v>765</v>
-      </c>
-      <c r="E5" s="14">
-        <v>8507.0400000000009</v>
-      </c>
-      <c r="F5" s="13">
-        <v>765</v>
-      </c>
-      <c r="G5" s="13">
-        <v>475.03</v>
-      </c>
-      <c r="H5" s="13">
-        <v>765</v>
-      </c>
-      <c r="I5" s="14">
-        <v>25132.61</v>
-      </c>
-      <c r="J5" s="13">
-        <v>765</v>
-      </c>
-      <c r="K5" s="14">
-        <v>143506.94</v>
-      </c>
-      <c r="L5" s="13">
-        <v>765</v>
-      </c>
-      <c r="M5" s="13">
-        <v>546.79999999999995</v>
-      </c>
-      <c r="N5" s="13">
-        <v>765</v>
-      </c>
-      <c r="O5" s="13">
-        <v>4</v>
-      </c>
-      <c r="P5" s="13">
-        <v>765</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>2206</v>
-      </c>
-      <c r="R5" s="13">
-        <v>765</v>
-      </c>
-      <c r="S5" s="14">
-        <v>6988</v>
-      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="14"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="13">
-        <v>153</v>
-      </c>
-      <c r="C6" s="14">
-        <v>9595.1200000000008</v>
-      </c>
-      <c r="D6" s="13">
-        <v>153</v>
-      </c>
-      <c r="E6" s="14">
-        <v>1577.48</v>
-      </c>
-      <c r="F6" s="13">
-        <v>153</v>
-      </c>
-      <c r="G6" s="13">
-        <v>52.92</v>
-      </c>
-      <c r="H6" s="13">
-        <v>153</v>
-      </c>
-      <c r="I6" s="14">
-        <v>4646.57</v>
-      </c>
-      <c r="J6" s="13">
-        <v>153</v>
-      </c>
-      <c r="K6" s="14">
-        <v>25283.9</v>
-      </c>
-      <c r="L6" s="13">
-        <v>153</v>
-      </c>
-      <c r="M6" s="14">
-        <v>24825.25</v>
-      </c>
-      <c r="N6" s="13">
-        <v>153</v>
-      </c>
-      <c r="O6" s="13">
-        <v>0</v>
-      </c>
-      <c r="P6" s="13">
-        <v>153</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>912</v>
-      </c>
-      <c r="R6" s="13">
-        <v>153</v>
-      </c>
-      <c r="S6" s="14">
-        <v>2537</v>
-      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="14"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="13">
-        <v>118</v>
-      </c>
-      <c r="C7" s="14">
-        <v>9410.9699999999993</v>
-      </c>
-      <c r="D7" s="13">
-        <v>118</v>
-      </c>
-      <c r="E7" s="14">
-        <v>1734.55</v>
-      </c>
-      <c r="F7" s="13">
-        <v>118</v>
-      </c>
-      <c r="G7" s="13">
-        <v>158.57</v>
-      </c>
-      <c r="H7" s="13">
-        <v>118</v>
-      </c>
-      <c r="I7" s="14">
-        <v>4939.45</v>
-      </c>
-      <c r="J7" s="13">
-        <v>118</v>
-      </c>
-      <c r="K7" s="14">
-        <v>33931.86</v>
-      </c>
-      <c r="L7" s="13">
-        <v>118</v>
-      </c>
-      <c r="M7" s="14">
-        <v>11166.8</v>
-      </c>
-      <c r="N7" s="13">
-        <v>118</v>
-      </c>
-      <c r="O7" s="13">
-        <v>1</v>
-      </c>
-      <c r="P7" s="13">
-        <v>118</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>725</v>
-      </c>
-      <c r="R7" s="13">
-        <v>118</v>
-      </c>
-      <c r="S7" s="14">
-        <v>2334</v>
-      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="14"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="13">
-        <v>1036</v>
-      </c>
-      <c r="C8" s="14">
-        <v>70392.850000000006</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1036</v>
-      </c>
-      <c r="E8" s="14">
-        <v>11819.07</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1036</v>
-      </c>
-      <c r="G8" s="13">
-        <v>686.52</v>
-      </c>
-      <c r="H8" s="13">
-        <v>1036</v>
-      </c>
-      <c r="I8" s="14">
-        <v>34718.629999999997</v>
-      </c>
-      <c r="J8" s="13">
-        <v>1036</v>
-      </c>
-      <c r="K8" s="14">
-        <v>202722.7</v>
-      </c>
-      <c r="L8" s="13">
-        <v>1036</v>
-      </c>
-      <c r="M8" s="14">
-        <v>36538.85</v>
-      </c>
-      <c r="N8" s="13">
-        <v>1036</v>
-      </c>
-      <c r="O8" s="13">
-        <v>5</v>
-      </c>
-      <c r="P8" s="13">
-        <v>1036</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>3843</v>
-      </c>
-      <c r="R8" s="13">
-        <v>1036</v>
-      </c>
-      <c r="S8" s="14">
-        <v>11859</v>
-      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="14"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
@@ -3685,237 +2773,93 @@
       <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="13">
-        <v>965</v>
-      </c>
-      <c r="C14" s="14">
-        <v>50123.39</v>
-      </c>
-      <c r="D14" s="13">
-        <v>965</v>
-      </c>
-      <c r="E14" s="14">
-        <v>5306.23</v>
-      </c>
-      <c r="F14" s="13">
-        <v>965</v>
-      </c>
-      <c r="G14" s="14">
-        <v>14973.07</v>
-      </c>
-      <c r="H14" s="13">
-        <v>965</v>
-      </c>
-      <c r="I14" s="14">
-        <v>26061.24</v>
-      </c>
-      <c r="J14" s="13">
-        <v>965</v>
-      </c>
-      <c r="K14" s="14">
-        <v>180138.01</v>
-      </c>
-      <c r="L14" s="13">
-        <v>965</v>
-      </c>
-      <c r="M14" s="13">
-        <v>355.46</v>
-      </c>
-      <c r="N14" s="13">
-        <v>965</v>
-      </c>
-      <c r="O14" s="13">
-        <v>21</v>
-      </c>
-      <c r="P14" s="13">
-        <v>965</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>6533</v>
-      </c>
-      <c r="R14" s="13">
-        <v>965</v>
-      </c>
-      <c r="S14" s="14">
-        <v>19081</v>
-      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="14"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="13">
-        <v>186</v>
-      </c>
-      <c r="C15" s="14">
-        <v>9396.58</v>
-      </c>
-      <c r="D15" s="13">
-        <v>186</v>
-      </c>
-      <c r="E15" s="14">
-        <v>1097.92</v>
-      </c>
-      <c r="F15" s="13">
-        <v>186</v>
-      </c>
-      <c r="G15" s="14">
-        <v>2727.57</v>
-      </c>
-      <c r="H15" s="13">
-        <v>186</v>
-      </c>
-      <c r="I15" s="14">
-        <v>5076.3599999999997</v>
-      </c>
-      <c r="J15" s="13">
-        <v>186</v>
-      </c>
-      <c r="K15" s="14">
-        <v>30511.81</v>
-      </c>
-      <c r="L15" s="13">
-        <v>186</v>
-      </c>
-      <c r="M15" s="14">
-        <v>29855.99</v>
-      </c>
-      <c r="N15" s="13">
-        <v>186</v>
-      </c>
-      <c r="O15" s="13">
-        <v>2</v>
-      </c>
-      <c r="P15" s="13">
-        <v>186</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>1691</v>
-      </c>
-      <c r="R15" s="13">
-        <v>186</v>
-      </c>
-      <c r="S15" s="14">
-        <v>3525</v>
-      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="13">
-        <v>187</v>
-      </c>
-      <c r="C16" s="14">
-        <v>13091.88</v>
-      </c>
-      <c r="D16" s="13">
-        <v>187</v>
-      </c>
-      <c r="E16" s="14">
-        <v>1093.04</v>
-      </c>
-      <c r="F16" s="13">
-        <v>187</v>
-      </c>
-      <c r="G16" s="14">
-        <v>3391.11</v>
-      </c>
-      <c r="H16" s="13">
-        <v>187</v>
-      </c>
-      <c r="I16" s="14">
-        <v>6646.24</v>
-      </c>
-      <c r="J16" s="13">
-        <v>187</v>
-      </c>
-      <c r="K16" s="14">
-        <v>45746.44</v>
-      </c>
-      <c r="L16" s="13">
-        <v>187</v>
-      </c>
-      <c r="M16" s="14">
-        <v>16433</v>
-      </c>
-      <c r="N16" s="13">
-        <v>187</v>
-      </c>
-      <c r="O16" s="13">
-        <v>1</v>
-      </c>
-      <c r="P16" s="13">
-        <v>187</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>2400</v>
-      </c>
-      <c r="R16" s="13">
-        <v>187</v>
-      </c>
-      <c r="S16" s="14">
-        <v>7511</v>
-      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="14"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="13">
-        <v>1338</v>
-      </c>
-      <c r="C17" s="14">
-        <v>72611.850000000006</v>
-      </c>
-      <c r="D17" s="13">
-        <v>1338</v>
-      </c>
-      <c r="E17" s="14">
-        <v>7497.19</v>
-      </c>
-      <c r="F17" s="13">
-        <v>1338</v>
-      </c>
-      <c r="G17" s="14">
-        <v>21091.75</v>
-      </c>
-      <c r="H17" s="13">
-        <v>1338</v>
-      </c>
-      <c r="I17" s="14">
-        <v>37783.839999999997</v>
-      </c>
-      <c r="J17" s="13">
-        <v>1338</v>
-      </c>
-      <c r="K17" s="14">
-        <v>256396.26</v>
-      </c>
-      <c r="L17" s="13">
-        <v>1338</v>
-      </c>
-      <c r="M17" s="14">
-        <v>46644.45</v>
-      </c>
-      <c r="N17" s="13">
-        <v>1338</v>
-      </c>
-      <c r="O17" s="13">
-        <v>24</v>
-      </c>
-      <c r="P17" s="13">
-        <v>1338</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>10624</v>
-      </c>
-      <c r="R17" s="13">
-        <v>1338</v>
-      </c>
-      <c r="S17" s="14">
-        <v>30117</v>
-      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="14"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
@@ -4061,237 +3005,93 @@
       <c r="A23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="13">
-        <v>464</v>
-      </c>
-      <c r="C23" s="14">
-        <v>3833.06</v>
-      </c>
-      <c r="D23" s="13">
-        <v>464</v>
-      </c>
-      <c r="E23" s="13">
-        <v>141.43</v>
-      </c>
-      <c r="F23" s="13">
-        <v>464</v>
-      </c>
-      <c r="G23" s="13">
-        <v>82.37</v>
-      </c>
-      <c r="H23" s="13">
-        <v>464</v>
-      </c>
-      <c r="I23" s="14">
-        <v>2048.2199999999998</v>
-      </c>
-      <c r="J23" s="13">
-        <v>464</v>
-      </c>
-      <c r="K23" s="14">
-        <v>74797.95</v>
-      </c>
-      <c r="L23" s="13">
-        <v>464</v>
-      </c>
-      <c r="M23" s="13">
-        <v>848.78</v>
-      </c>
-      <c r="N23" s="13">
-        <v>464</v>
-      </c>
-      <c r="O23" s="14">
-        <v>102766</v>
-      </c>
-      <c r="P23" s="13">
-        <v>464</v>
-      </c>
-      <c r="Q23" s="14">
-        <v>1380</v>
-      </c>
-      <c r="R23" s="13">
-        <v>464</v>
-      </c>
-      <c r="S23" s="14">
-        <v>12045</v>
-      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="14"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="13">
-        <v>68</v>
-      </c>
-      <c r="C24" s="14">
-        <v>986.18</v>
-      </c>
-      <c r="D24" s="13">
-        <v>68</v>
-      </c>
-      <c r="E24" s="13">
-        <v>18.670000000000002</v>
-      </c>
-      <c r="F24" s="13">
-        <v>68</v>
-      </c>
-      <c r="G24" s="13">
-        <v>39.909999999999997</v>
-      </c>
-      <c r="H24" s="13">
-        <v>68</v>
-      </c>
-      <c r="I24" s="13">
-        <v>259.97000000000003</v>
-      </c>
-      <c r="J24" s="13">
-        <v>68</v>
-      </c>
-      <c r="K24" s="14">
-        <v>10447.36</v>
-      </c>
-      <c r="L24" s="13">
-        <v>68</v>
-      </c>
-      <c r="M24" s="14">
-        <v>10209.75</v>
-      </c>
-      <c r="N24" s="13">
-        <v>68</v>
-      </c>
-      <c r="O24" s="14">
-        <v>14036</v>
-      </c>
-      <c r="P24" s="13">
-        <v>68</v>
-      </c>
-      <c r="Q24" s="13">
-        <v>200</v>
-      </c>
-      <c r="R24" s="13">
-        <v>68</v>
-      </c>
-      <c r="S24" s="14">
-        <v>2147</v>
-      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="14"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="13">
-        <v>90</v>
-      </c>
-      <c r="C25" s="14">
-        <v>1545.21</v>
-      </c>
-      <c r="D25" s="13">
-        <v>90</v>
-      </c>
-      <c r="E25" s="13">
-        <v>116.87</v>
-      </c>
-      <c r="F25" s="13">
-        <v>90</v>
-      </c>
-      <c r="G25" s="13">
-        <v>0</v>
-      </c>
-      <c r="H25" s="13">
-        <v>90</v>
-      </c>
-      <c r="I25" s="13">
-        <v>896.17</v>
-      </c>
-      <c r="J25" s="13">
-        <v>90</v>
-      </c>
-      <c r="K25" s="14">
-        <v>21777.18</v>
-      </c>
-      <c r="L25" s="13">
-        <v>90</v>
-      </c>
-      <c r="M25" s="14">
-        <v>8207.8700000000008</v>
-      </c>
-      <c r="N25" s="13">
-        <v>90</v>
-      </c>
-      <c r="O25" s="14">
-        <v>26594</v>
-      </c>
-      <c r="P25" s="13">
-        <v>90</v>
-      </c>
-      <c r="Q25" s="13">
-        <v>451</v>
-      </c>
-      <c r="R25" s="13">
-        <v>90</v>
-      </c>
-      <c r="S25" s="14">
-        <v>5418</v>
-      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="14"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="13">
-        <v>622</v>
-      </c>
-      <c r="C26" s="14">
-        <v>6364.45</v>
-      </c>
-      <c r="D26" s="13">
-        <v>622</v>
-      </c>
-      <c r="E26" s="13">
-        <v>276.97000000000003</v>
-      </c>
-      <c r="F26" s="13">
-        <v>622</v>
-      </c>
-      <c r="G26" s="13">
-        <v>122.28</v>
-      </c>
-      <c r="H26" s="13">
-        <v>622</v>
-      </c>
-      <c r="I26" s="14">
-        <v>3204.36</v>
-      </c>
-      <c r="J26" s="13">
-        <v>622</v>
-      </c>
-      <c r="K26" s="14">
-        <v>107022.49</v>
-      </c>
-      <c r="L26" s="13">
-        <v>622</v>
-      </c>
-      <c r="M26" s="14">
-        <v>19266.400000000001</v>
-      </c>
-      <c r="N26" s="13">
-        <v>622</v>
-      </c>
-      <c r="O26" s="14">
-        <v>143396</v>
-      </c>
-      <c r="P26" s="13">
-        <v>622</v>
-      </c>
-      <c r="Q26" s="14">
-        <v>2031</v>
-      </c>
-      <c r="R26" s="13">
-        <v>622</v>
-      </c>
-      <c r="S26" s="14">
-        <v>19610</v>
-      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="14"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
@@ -4437,237 +3237,93 @@
       <c r="A32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="13">
-        <v>892</v>
-      </c>
-      <c r="C32" s="13">
-        <v>1078.32</v>
-      </c>
-      <c r="D32" s="13">
-        <v>892</v>
-      </c>
-      <c r="E32" s="13">
-        <v>153.43</v>
-      </c>
-      <c r="F32" s="13">
-        <v>892</v>
-      </c>
-      <c r="G32" s="13">
-        <v>1.74</v>
-      </c>
-      <c r="H32" s="13">
-        <v>892</v>
-      </c>
-      <c r="I32" s="13">
-        <v>40.47</v>
-      </c>
-      <c r="J32" s="13">
-        <v>892</v>
-      </c>
-      <c r="K32" s="14">
-        <v>841560.4</v>
-      </c>
-      <c r="L32" s="13">
-        <v>892</v>
-      </c>
-      <c r="M32" s="13">
-        <v>8051.38</v>
-      </c>
-      <c r="N32" s="13">
-        <v>892</v>
-      </c>
-      <c r="O32" s="13">
-        <v>37</v>
-      </c>
-      <c r="P32" s="13">
-        <v>892</v>
-      </c>
-      <c r="Q32" s="14">
-        <v>3241</v>
-      </c>
-      <c r="R32" s="13">
-        <v>892</v>
-      </c>
-      <c r="S32" s="14">
-        <v>482357</v>
-      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="14"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="13">
-        <v>439</v>
-      </c>
-      <c r="C33" s="13">
-        <v>168.57</v>
-      </c>
-      <c r="D33" s="13">
-        <v>439</v>
-      </c>
-      <c r="E33" s="13">
-        <v>25.77</v>
-      </c>
-      <c r="F33" s="13">
-        <v>439</v>
-      </c>
-      <c r="G33" s="13">
-        <v>0.13</v>
-      </c>
-      <c r="H33" s="13">
-        <v>439</v>
-      </c>
-      <c r="I33" s="13">
-        <v>0.67</v>
-      </c>
-      <c r="J33" s="13">
-        <v>439</v>
-      </c>
-      <c r="K33" s="14">
-        <v>292726.63</v>
-      </c>
-      <c r="L33" s="13">
-        <v>439</v>
-      </c>
-      <c r="M33" s="14">
-        <v>289131.17</v>
-      </c>
-      <c r="N33" s="13">
-        <v>439</v>
-      </c>
-      <c r="O33" s="13">
-        <v>3</v>
-      </c>
-      <c r="P33" s="13">
-        <v>439</v>
-      </c>
-      <c r="Q33" s="14">
-        <v>2185</v>
-      </c>
-      <c r="R33" s="13">
-        <v>439</v>
-      </c>
-      <c r="S33" s="14">
-        <v>239391</v>
-      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="14"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="13">
-        <v>236</v>
-      </c>
-      <c r="C34" s="13">
-        <v>230.21</v>
-      </c>
-      <c r="D34" s="13">
-        <v>236</v>
-      </c>
-      <c r="E34" s="13">
-        <v>47.67</v>
-      </c>
-      <c r="F34" s="13">
-        <v>236</v>
-      </c>
-      <c r="G34" s="13">
-        <v>0.03</v>
-      </c>
-      <c r="H34" s="13">
-        <v>236</v>
-      </c>
-      <c r="I34" s="13">
-        <v>7.46</v>
-      </c>
-      <c r="J34" s="13">
-        <v>236</v>
-      </c>
-      <c r="K34" s="14">
-        <v>169161.14</v>
-      </c>
-      <c r="L34" s="13">
-        <v>236</v>
-      </c>
-      <c r="M34" s="14">
-        <v>87321.98</v>
-      </c>
-      <c r="N34" s="13">
-        <v>236</v>
-      </c>
-      <c r="O34" s="13">
-        <v>4</v>
-      </c>
-      <c r="P34" s="13">
-        <v>236</v>
-      </c>
-      <c r="Q34" s="14">
-        <v>2080</v>
-      </c>
-      <c r="R34" s="13">
-        <v>236</v>
-      </c>
-      <c r="S34" s="14">
-        <v>147178</v>
-      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="14"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="13">
-        <v>1567</v>
-      </c>
-      <c r="C35" s="14">
-        <v>1477.1</v>
-      </c>
-      <c r="D35" s="13">
-        <v>1567</v>
-      </c>
-      <c r="E35" s="13">
-        <v>226.87</v>
-      </c>
-      <c r="F35" s="13">
-        <v>1567</v>
-      </c>
-      <c r="G35" s="13">
-        <v>1.9</v>
-      </c>
-      <c r="H35" s="13">
-        <v>1567</v>
-      </c>
-      <c r="I35" s="13">
-        <v>48.6</v>
-      </c>
-      <c r="J35" s="13">
-        <v>1567</v>
-      </c>
-      <c r="K35" s="14">
-        <v>1303448.17</v>
-      </c>
-      <c r="L35" s="13">
-        <v>1567</v>
-      </c>
-      <c r="M35" s="14">
-        <v>384504.53</v>
-      </c>
-      <c r="N35" s="13">
-        <v>1567</v>
-      </c>
-      <c r="O35" s="13">
-        <v>44</v>
-      </c>
-      <c r="P35" s="13">
-        <v>1567</v>
-      </c>
-      <c r="Q35" s="14">
-        <v>7506</v>
-      </c>
-      <c r="R35" s="13">
-        <v>1567</v>
-      </c>
-      <c r="S35" s="14">
-        <v>868926</v>
-      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="14"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
@@ -4813,237 +3469,93 @@
       <c r="A41" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="13">
-        <v>2043</v>
-      </c>
-      <c r="C41" s="14">
-        <v>13441.93</v>
-      </c>
-      <c r="D41" s="13">
-        <v>2043</v>
-      </c>
-      <c r="E41" s="13">
-        <v>678.66</v>
-      </c>
-      <c r="F41" s="13">
-        <v>2043</v>
-      </c>
-      <c r="G41" s="13">
-        <v>118.34</v>
-      </c>
-      <c r="H41" s="13">
-        <v>2043</v>
-      </c>
-      <c r="I41" s="14">
-        <v>824.13</v>
-      </c>
-      <c r="J41" s="13">
-        <v>2043</v>
-      </c>
-      <c r="K41" s="14">
-        <v>496156.93</v>
-      </c>
-      <c r="L41" s="13">
-        <v>2043</v>
-      </c>
-      <c r="M41" s="13">
-        <v>1428.92</v>
-      </c>
-      <c r="N41" s="13">
-        <v>2043</v>
-      </c>
-      <c r="O41" s="14">
-        <v>15064</v>
-      </c>
-      <c r="P41" s="13">
-        <v>2043</v>
-      </c>
-      <c r="Q41" s="14">
-        <v>142834</v>
-      </c>
-      <c r="R41" s="13">
-        <v>2043</v>
-      </c>
-      <c r="S41" s="14">
-        <v>285538</v>
-      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="14"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="13">
-        <v>471</v>
-      </c>
-      <c r="C42" s="14">
-        <v>3898.79</v>
-      </c>
-      <c r="D42" s="13">
-        <v>471</v>
-      </c>
-      <c r="E42" s="13">
-        <v>206.34</v>
-      </c>
-      <c r="F42" s="13">
-        <v>471</v>
-      </c>
-      <c r="G42" s="13">
-        <v>16.46</v>
-      </c>
-      <c r="H42" s="13">
-        <v>471</v>
-      </c>
-      <c r="I42" s="13">
-        <v>134.80000000000001</v>
-      </c>
-      <c r="J42" s="13">
-        <v>471</v>
-      </c>
-      <c r="K42" s="14">
-        <v>138846.15</v>
-      </c>
-      <c r="L42" s="13">
-        <v>471</v>
-      </c>
-      <c r="M42" s="14">
-        <v>138376.73000000001</v>
-      </c>
-      <c r="N42" s="13">
-        <v>471</v>
-      </c>
-      <c r="O42" s="14">
-        <v>1136</v>
-      </c>
-      <c r="P42" s="13">
-        <v>471</v>
-      </c>
-      <c r="Q42" s="14">
-        <v>36599</v>
-      </c>
-      <c r="R42" s="13">
-        <v>471</v>
-      </c>
-      <c r="S42" s="14">
-        <v>76641</v>
-      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="14"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="13">
-        <v>472</v>
-      </c>
-      <c r="C43" s="14">
-        <v>5250.64</v>
-      </c>
-      <c r="D43" s="13">
-        <v>472</v>
-      </c>
-      <c r="E43" s="13">
-        <v>425.35</v>
-      </c>
-      <c r="F43" s="13">
-        <v>472</v>
-      </c>
-      <c r="G43" s="13">
-        <v>38.869999999999997</v>
-      </c>
-      <c r="H43" s="13">
-        <v>472</v>
-      </c>
-      <c r="I43" s="13">
-        <v>249.05</v>
-      </c>
-      <c r="J43" s="13">
-        <v>472</v>
-      </c>
-      <c r="K43" s="14">
-        <v>129194.03</v>
-      </c>
-      <c r="L43" s="13">
-        <v>472</v>
-      </c>
-      <c r="M43" s="14">
-        <v>58067.53</v>
-      </c>
-      <c r="N43" s="13">
-        <v>472</v>
-      </c>
-      <c r="O43" s="14">
-        <v>3388</v>
-      </c>
-      <c r="P43" s="13">
-        <v>472</v>
-      </c>
-      <c r="Q43" s="14">
-        <v>45330</v>
-      </c>
-      <c r="R43" s="13">
-        <v>472</v>
-      </c>
-      <c r="S43" s="14">
-        <v>91957</v>
-      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="14"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="13">
-        <v>2986</v>
-      </c>
-      <c r="C44" s="14">
-        <v>22591.360000000001</v>
-      </c>
-      <c r="D44" s="13">
-        <v>2986</v>
-      </c>
-      <c r="E44" s="14">
-        <v>1310.3499999999999</v>
-      </c>
-      <c r="F44" s="13">
-        <v>2986</v>
-      </c>
-      <c r="G44" s="13">
-        <v>173.67</v>
-      </c>
-      <c r="H44" s="13">
-        <v>2986</v>
-      </c>
-      <c r="I44" s="14">
-        <v>1207.98</v>
-      </c>
-      <c r="J44" s="13">
-        <v>2986</v>
-      </c>
-      <c r="K44" s="14">
-        <v>764197.11</v>
-      </c>
-      <c r="L44" s="13">
-        <v>2986</v>
-      </c>
-      <c r="M44" s="14">
-        <v>197873.18</v>
-      </c>
-      <c r="N44" s="13">
-        <v>2986</v>
-      </c>
-      <c r="O44" s="14">
-        <v>19588</v>
-      </c>
-      <c r="P44" s="13">
-        <v>2986</v>
-      </c>
-      <c r="Q44" s="14">
-        <v>224763</v>
-      </c>
-      <c r="R44" s="13">
-        <v>2986</v>
-      </c>
-      <c r="S44" s="14">
-        <v>454136</v>
-      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="14"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
@@ -5189,237 +3701,93 @@
       <c r="A50" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="13">
-        <v>540</v>
-      </c>
-      <c r="C50" s="14">
-        <v>1539.45</v>
-      </c>
-      <c r="D50" s="13">
-        <v>540</v>
-      </c>
-      <c r="E50" s="13">
-        <v>198.45</v>
-      </c>
-      <c r="F50" s="13">
-        <v>540</v>
-      </c>
-      <c r="G50" s="13">
-        <v>14.33</v>
-      </c>
-      <c r="H50" s="13">
-        <v>540</v>
-      </c>
-      <c r="I50" s="13">
-        <v>139.52000000000001</v>
-      </c>
-      <c r="J50" s="13">
-        <v>540</v>
-      </c>
-      <c r="K50" s="14">
-        <v>331506.81</v>
-      </c>
-      <c r="L50" s="13">
-        <v>540</v>
-      </c>
-      <c r="M50" s="13">
-        <v>191.1</v>
-      </c>
-      <c r="N50" s="13">
-        <v>540</v>
-      </c>
-      <c r="O50" s="13">
-        <v>46</v>
-      </c>
-      <c r="P50" s="13">
-        <v>540</v>
-      </c>
-      <c r="Q50" s="14">
-        <v>26176</v>
-      </c>
-      <c r="R50" s="13">
-        <v>540</v>
-      </c>
-      <c r="S50" s="14">
-        <v>305734</v>
-      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="14"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="13">
-        <v>315</v>
-      </c>
-      <c r="C51" s="13">
-        <v>910.56</v>
-      </c>
-      <c r="D51" s="13">
-        <v>315</v>
-      </c>
-      <c r="E51" s="13">
-        <v>36.83</v>
-      </c>
-      <c r="F51" s="13">
-        <v>315</v>
-      </c>
-      <c r="G51" s="13">
-        <v>0.54</v>
-      </c>
-      <c r="H51" s="13">
-        <v>315</v>
-      </c>
-      <c r="I51" s="13">
-        <v>54.33</v>
-      </c>
-      <c r="J51" s="13">
-        <v>315</v>
-      </c>
-      <c r="K51" s="14">
-        <v>204314.99</v>
-      </c>
-      <c r="L51" s="13">
-        <v>315</v>
-      </c>
-      <c r="M51" s="14">
-        <v>203029.67</v>
-      </c>
-      <c r="N51" s="13">
-        <v>315</v>
-      </c>
-      <c r="O51" s="13">
-        <v>33</v>
-      </c>
-      <c r="P51" s="13">
-        <v>315</v>
-      </c>
-      <c r="Q51" s="14">
-        <v>15445</v>
-      </c>
-      <c r="R51" s="13">
-        <v>315</v>
-      </c>
-      <c r="S51" s="14">
-        <v>180230</v>
-      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="14"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="13">
-        <v>209</v>
-      </c>
-      <c r="C52" s="13">
-        <v>678.74</v>
-      </c>
-      <c r="D52" s="13">
-        <v>209</v>
-      </c>
-      <c r="E52" s="13">
-        <v>91.19</v>
-      </c>
-      <c r="F52" s="13">
-        <v>209</v>
-      </c>
-      <c r="G52" s="13">
-        <v>1.97</v>
-      </c>
-      <c r="H52" s="13">
-        <v>209</v>
-      </c>
-      <c r="I52" s="13">
-        <v>17.760000000000002</v>
-      </c>
-      <c r="J52" s="13">
-        <v>209</v>
-      </c>
-      <c r="K52" s="14">
-        <v>146529.49</v>
-      </c>
-      <c r="L52" s="13">
-        <v>209</v>
-      </c>
-      <c r="M52" s="14">
-        <v>74919.399999999994</v>
-      </c>
-      <c r="N52" s="13">
-        <v>209</v>
-      </c>
-      <c r="O52" s="13">
-        <v>26</v>
-      </c>
-      <c r="P52" s="13">
-        <v>209</v>
-      </c>
-      <c r="Q52" s="14">
-        <v>11472</v>
-      </c>
-      <c r="R52" s="13">
-        <v>209</v>
-      </c>
-      <c r="S52" s="14">
-        <v>140252</v>
-      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="14"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="13">
-        <v>1064</v>
-      </c>
-      <c r="C53" s="14">
-        <v>3128.75</v>
-      </c>
-      <c r="D53" s="13">
-        <v>1064</v>
-      </c>
-      <c r="E53" s="13">
-        <v>326.47000000000003</v>
-      </c>
-      <c r="F53" s="13">
-        <v>1064</v>
-      </c>
-      <c r="G53" s="13">
-        <v>16.84</v>
-      </c>
-      <c r="H53" s="13">
-        <v>1064</v>
-      </c>
-      <c r="I53" s="13">
-        <v>211.61</v>
-      </c>
-      <c r="J53" s="13">
-        <v>1064</v>
-      </c>
-      <c r="K53" s="14">
-        <v>682351.29</v>
-      </c>
-      <c r="L53" s="13">
-        <v>1064</v>
-      </c>
-      <c r="M53" s="14">
-        <v>278140.17</v>
-      </c>
-      <c r="N53" s="13">
-        <v>1064</v>
-      </c>
-      <c r="O53" s="13">
-        <v>105</v>
-      </c>
-      <c r="P53" s="13">
-        <v>1064</v>
-      </c>
-      <c r="Q53" s="14">
-        <v>53093</v>
-      </c>
-      <c r="R53" s="13">
-        <v>1064</v>
-      </c>
-      <c r="S53" s="14">
-        <v>626216</v>
-      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="14"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
@@ -5565,237 +3933,93 @@
       <c r="A59" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="13">
-        <v>558</v>
-      </c>
-      <c r="C59" s="14">
-        <v>8513.4500000000007</v>
-      </c>
-      <c r="D59" s="13">
-        <v>558</v>
-      </c>
-      <c r="E59" s="13">
-        <v>368.75</v>
-      </c>
-      <c r="F59" s="13">
-        <v>558</v>
-      </c>
-      <c r="G59" s="13">
-        <v>49.45</v>
-      </c>
-      <c r="H59" s="13">
-        <v>558</v>
-      </c>
-      <c r="I59" s="13">
-        <v>636.30999999999995</v>
-      </c>
-      <c r="J59" s="13">
-        <v>558</v>
-      </c>
-      <c r="K59" s="14">
-        <v>58372.42</v>
-      </c>
-      <c r="L59" s="13">
-        <v>558</v>
-      </c>
-      <c r="M59" s="13">
-        <v>412.51</v>
-      </c>
-      <c r="N59" s="13">
-        <v>558</v>
-      </c>
-      <c r="O59" s="14">
-        <v>4293</v>
-      </c>
-      <c r="P59" s="13">
-        <v>558</v>
-      </c>
-      <c r="Q59" s="14">
-        <v>22890</v>
-      </c>
-      <c r="R59" s="13">
-        <v>558</v>
-      </c>
-      <c r="S59" s="14">
-        <v>81592</v>
-      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="14"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="13">
-        <v>114</v>
-      </c>
-      <c r="C60" s="14">
-        <v>1290.1500000000001</v>
-      </c>
-      <c r="D60" s="13">
-        <v>114</v>
-      </c>
-      <c r="E60" s="13">
-        <v>192.1</v>
-      </c>
-      <c r="F60" s="13">
-        <v>114</v>
-      </c>
-      <c r="G60" s="13">
-        <v>21.94</v>
-      </c>
-      <c r="H60" s="13">
-        <v>114</v>
-      </c>
-      <c r="I60" s="13">
-        <v>84.51</v>
-      </c>
-      <c r="J60" s="13">
-        <v>114</v>
-      </c>
-      <c r="K60" s="14">
-        <v>10213.780000000001</v>
-      </c>
-      <c r="L60" s="13">
-        <v>114</v>
-      </c>
-      <c r="M60" s="14">
-        <v>10183.129999999999</v>
-      </c>
-      <c r="N60" s="13">
-        <v>114</v>
-      </c>
-      <c r="O60" s="13">
-        <v>438</v>
-      </c>
-      <c r="P60" s="13">
-        <v>114</v>
-      </c>
-      <c r="Q60" s="14">
-        <v>4866</v>
-      </c>
-      <c r="R60" s="13">
-        <v>114</v>
-      </c>
-      <c r="S60" s="14">
-        <v>23635</v>
-      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="14"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="13">
-        <v>113</v>
-      </c>
-      <c r="C61" s="14">
-        <v>3638.29</v>
-      </c>
-      <c r="D61" s="13">
-        <v>113</v>
-      </c>
-      <c r="E61" s="13">
-        <v>257.16000000000003</v>
-      </c>
-      <c r="F61" s="13">
-        <v>113</v>
-      </c>
-      <c r="G61" s="13">
-        <v>0</v>
-      </c>
-      <c r="H61" s="13">
-        <v>113</v>
-      </c>
-      <c r="I61" s="13">
-        <v>278.62</v>
-      </c>
-      <c r="J61" s="13">
-        <v>113</v>
-      </c>
-      <c r="K61" s="14">
-        <v>17263.25</v>
-      </c>
-      <c r="L61" s="13">
-        <v>113</v>
-      </c>
-      <c r="M61" s="14">
-        <v>6154.4</v>
-      </c>
-      <c r="N61" s="13">
-        <v>113</v>
-      </c>
-      <c r="O61" s="13">
-        <v>936</v>
-      </c>
-      <c r="P61" s="13">
-        <v>113</v>
-      </c>
-      <c r="Q61" s="14">
-        <v>6085</v>
-      </c>
-      <c r="R61" s="13">
-        <v>113</v>
-      </c>
-      <c r="S61" s="14">
-        <v>24001</v>
-      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="14"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="13">
-        <v>785</v>
-      </c>
-      <c r="C62" s="14">
-        <v>13441.89</v>
-      </c>
-      <c r="D62" s="13">
-        <v>785</v>
-      </c>
-      <c r="E62" s="13">
-        <v>818.01</v>
-      </c>
-      <c r="F62" s="13">
-        <v>785</v>
-      </c>
-      <c r="G62" s="13">
-        <v>71.39</v>
-      </c>
-      <c r="H62" s="13">
-        <v>785</v>
-      </c>
-      <c r="I62" s="14">
-        <v>999.44</v>
-      </c>
-      <c r="J62" s="13">
-        <v>785</v>
-      </c>
-      <c r="K62" s="14">
-        <v>85849.45</v>
-      </c>
-      <c r="L62" s="13">
-        <v>785</v>
-      </c>
-      <c r="M62" s="14">
-        <v>16750.04</v>
-      </c>
-      <c r="N62" s="13">
-        <v>785</v>
-      </c>
-      <c r="O62" s="14">
-        <v>5667</v>
-      </c>
-      <c r="P62" s="13">
-        <v>785</v>
-      </c>
-      <c r="Q62" s="14">
-        <v>33841</v>
-      </c>
-      <c r="R62" s="13">
-        <v>785</v>
-      </c>
-      <c r="S62" s="14">
-        <v>129228</v>
-      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="14"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
@@ -5941,237 +4165,93 @@
       <c r="A68" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="13">
-        <v>797</v>
-      </c>
-      <c r="C68" s="14">
-        <v>40536.74</v>
-      </c>
-      <c r="D68" s="13">
-        <v>797</v>
-      </c>
-      <c r="E68" s="14">
-        <v>4800.6899999999996</v>
-      </c>
-      <c r="F68" s="13">
-        <v>797</v>
-      </c>
-      <c r="G68" s="14">
-        <v>2594.1799999999998</v>
-      </c>
-      <c r="H68" s="13">
-        <v>797</v>
-      </c>
-      <c r="I68" s="14">
-        <v>11127.43</v>
-      </c>
-      <c r="J68" s="13">
-        <v>797</v>
-      </c>
-      <c r="K68" s="14">
-        <v>180810.21</v>
-      </c>
-      <c r="L68" s="13">
-        <v>797</v>
-      </c>
-      <c r="M68" s="13">
-        <v>332.46</v>
-      </c>
-      <c r="N68" s="13">
-        <v>797</v>
-      </c>
-      <c r="O68" s="14">
-        <v>2775</v>
-      </c>
-      <c r="P68" s="13">
-        <v>797</v>
-      </c>
-      <c r="Q68" s="14">
-        <v>32248</v>
-      </c>
-      <c r="R68" s="13">
-        <v>797</v>
-      </c>
-      <c r="S68" s="14">
-        <v>85108</v>
-      </c>
+      <c r="B68" s="13"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="14"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="13">
-        <v>196</v>
-      </c>
-      <c r="C69" s="14">
-        <v>10904.03</v>
-      </c>
-      <c r="D69" s="13">
-        <v>196</v>
-      </c>
-      <c r="E69" s="14">
-        <v>1190.5899999999999</v>
-      </c>
-      <c r="F69" s="13">
-        <v>196</v>
-      </c>
-      <c r="G69" s="13">
-        <v>616.48</v>
-      </c>
-      <c r="H69" s="13">
-        <v>196</v>
-      </c>
-      <c r="I69" s="14">
-        <v>2268.92</v>
-      </c>
-      <c r="J69" s="13">
-        <v>196</v>
-      </c>
-      <c r="K69" s="14">
-        <v>41071.83</v>
-      </c>
-      <c r="L69" s="13">
-        <v>196</v>
-      </c>
-      <c r="M69" s="14">
-        <v>39275.75</v>
-      </c>
-      <c r="N69" s="13">
-        <v>196</v>
-      </c>
-      <c r="O69" s="13">
-        <v>171</v>
-      </c>
-      <c r="P69" s="13">
-        <v>196</v>
-      </c>
-      <c r="Q69" s="14">
-        <v>9520</v>
-      </c>
-      <c r="R69" s="13">
-        <v>196</v>
-      </c>
-      <c r="S69" s="14">
-        <v>28363</v>
-      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="14"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="13">
-        <v>220</v>
-      </c>
-      <c r="C70" s="14">
-        <v>15651.51</v>
-      </c>
-      <c r="D70" s="13">
-        <v>220</v>
-      </c>
-      <c r="E70" s="14">
-        <v>1665.52</v>
-      </c>
-      <c r="F70" s="13">
-        <v>220</v>
-      </c>
-      <c r="G70" s="13">
-        <v>1194.1400000000001</v>
-      </c>
-      <c r="H70" s="13">
-        <v>220</v>
-      </c>
-      <c r="I70" s="14">
-        <v>4115.34</v>
-      </c>
-      <c r="J70" s="13">
-        <v>220</v>
-      </c>
-      <c r="K70" s="14">
-        <v>61069.41</v>
-      </c>
-      <c r="L70" s="13">
-        <v>220</v>
-      </c>
-      <c r="M70" s="14">
-        <v>25097.66</v>
-      </c>
-      <c r="N70" s="13">
-        <v>220</v>
-      </c>
-      <c r="O70" s="14">
-        <v>1309</v>
-      </c>
-      <c r="P70" s="13">
-        <v>220</v>
-      </c>
-      <c r="Q70" s="14">
-        <v>14298</v>
-      </c>
-      <c r="R70" s="13">
-        <v>220</v>
-      </c>
-      <c r="S70" s="14">
-        <v>30050</v>
-      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="14"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="13">
-        <v>1213</v>
-      </c>
-      <c r="C71" s="14">
-        <v>67092.28</v>
-      </c>
-      <c r="D71" s="13">
-        <v>1213</v>
-      </c>
-      <c r="E71" s="14">
-        <v>7656.8</v>
-      </c>
-      <c r="F71" s="13">
-        <v>1213</v>
-      </c>
-      <c r="G71" s="14">
-        <v>4404.8</v>
-      </c>
-      <c r="H71" s="13">
-        <v>1213</v>
-      </c>
-      <c r="I71" s="14">
-        <v>17511.689999999999</v>
-      </c>
-      <c r="J71" s="13">
-        <v>1213</v>
-      </c>
-      <c r="K71" s="14">
-        <v>282951.45</v>
-      </c>
-      <c r="L71" s="13">
-        <v>1213</v>
-      </c>
-      <c r="M71" s="14">
-        <v>64705.87</v>
-      </c>
-      <c r="N71" s="13">
-        <v>1213</v>
-      </c>
-      <c r="O71" s="14">
-        <v>4255</v>
-      </c>
-      <c r="P71" s="13">
-        <v>1213</v>
-      </c>
-      <c r="Q71" s="14">
-        <v>56066</v>
-      </c>
-      <c r="R71" s="13">
-        <v>1213</v>
-      </c>
-      <c r="S71" s="14">
-        <v>143521</v>
-      </c>
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="14"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
@@ -6317,237 +4397,93 @@
       <c r="A77" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="13">
-        <v>7024</v>
-      </c>
-      <c r="C77" s="14">
-        <v>170453.1</v>
-      </c>
-      <c r="D77" s="13">
-        <v>7024</v>
-      </c>
-      <c r="E77" s="14">
-        <v>20154.68</v>
-      </c>
-      <c r="F77" s="13">
-        <v>7024</v>
-      </c>
-      <c r="G77" s="14">
-        <v>18308.509999999998</v>
-      </c>
-      <c r="H77" s="13">
-        <v>7024</v>
-      </c>
-      <c r="I77" s="14">
-        <v>66009.929999999993</v>
-      </c>
-      <c r="J77" s="13">
-        <v>7024</v>
-      </c>
-      <c r="K77" s="14">
-        <v>2306849.67</v>
-      </c>
-      <c r="L77" s="13">
-        <v>7024</v>
-      </c>
-      <c r="M77" s="13">
-        <v>12167.41</v>
-      </c>
-      <c r="N77" s="13">
-        <v>7024</v>
-      </c>
-      <c r="O77" s="14">
-        <v>125006</v>
-      </c>
-      <c r="P77" s="13">
-        <v>7024</v>
-      </c>
-      <c r="Q77" s="14">
-        <v>237508</v>
-      </c>
-      <c r="R77" s="13">
-        <v>7024</v>
-      </c>
-      <c r="S77" s="14">
-        <v>1278443</v>
-      </c>
+      <c r="B77" s="13"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="14"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B78" s="13">
-        <v>1942</v>
-      </c>
-      <c r="C78" s="14">
-        <v>37149.980000000003</v>
-      </c>
-      <c r="D78" s="13">
-        <v>1942</v>
-      </c>
-      <c r="E78" s="14">
-        <v>4345.7</v>
-      </c>
-      <c r="F78" s="13">
-        <v>1942</v>
-      </c>
-      <c r="G78" s="14">
-        <v>3475.95</v>
-      </c>
-      <c r="H78" s="13">
-        <v>1942</v>
-      </c>
-      <c r="I78" s="14">
-        <v>12526.13</v>
-      </c>
-      <c r="J78" s="13">
-        <v>1942</v>
-      </c>
-      <c r="K78" s="14">
-        <v>753416.45</v>
-      </c>
-      <c r="L78" s="13">
-        <v>1942</v>
-      </c>
-      <c r="M78" s="14">
-        <v>744887.44</v>
-      </c>
-      <c r="N78" s="13">
-        <v>1942</v>
-      </c>
-      <c r="O78" s="14">
-        <v>15819</v>
-      </c>
-      <c r="P78" s="13">
-        <v>1942</v>
-      </c>
-      <c r="Q78" s="14">
-        <v>71418</v>
-      </c>
-      <c r="R78" s="13">
-        <v>1942</v>
-      </c>
-      <c r="S78" s="14">
-        <v>556469</v>
-      </c>
+      <c r="B78" s="13"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="14"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="13">
-        <v>1645</v>
-      </c>
-      <c r="C79" s="14">
-        <v>49497.45</v>
-      </c>
-      <c r="D79" s="13">
-        <v>1645</v>
-      </c>
-      <c r="E79" s="14">
-        <v>5431.35</v>
-      </c>
-      <c r="F79" s="13">
-        <v>1645</v>
-      </c>
-      <c r="G79" s="14">
-        <v>4784.6899999999996</v>
-      </c>
-      <c r="H79" s="13">
-        <v>1645</v>
-      </c>
-      <c r="I79" s="14">
-        <v>17150.09</v>
-      </c>
-      <c r="J79" s="13">
-        <v>1645</v>
-      </c>
-      <c r="K79" s="14">
-        <v>624672.80000000005</v>
-      </c>
-      <c r="L79" s="13">
-        <v>1645</v>
-      </c>
-      <c r="M79" s="14">
-        <v>287368.64</v>
-      </c>
-      <c r="N79" s="13">
-        <v>1645</v>
-      </c>
-      <c r="O79" s="14">
-        <v>32259</v>
-      </c>
-      <c r="P79" s="13">
-        <v>1645</v>
-      </c>
-      <c r="Q79" s="14">
-        <v>82841</v>
-      </c>
-      <c r="R79" s="13">
-        <v>1645</v>
-      </c>
-      <c r="S79" s="14">
-        <v>448701</v>
-      </c>
+      <c r="B79" s="13"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="14"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="14"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="13">
-        <v>10611</v>
-      </c>
-      <c r="C80" s="14">
-        <v>257100.53</v>
-      </c>
-      <c r="D80" s="13">
-        <v>10611</v>
-      </c>
-      <c r="E80" s="14">
-        <v>29931.73</v>
-      </c>
-      <c r="F80" s="13">
-        <v>10611</v>
-      </c>
-      <c r="G80" s="14">
-        <v>26569.15</v>
-      </c>
-      <c r="H80" s="13">
-        <v>10611</v>
-      </c>
-      <c r="I80" s="14">
-        <v>95686.15</v>
-      </c>
-      <c r="J80" s="13">
-        <v>10611</v>
-      </c>
-      <c r="K80" s="14">
-        <v>3684938.92</v>
-      </c>
-      <c r="L80" s="13">
-        <v>10611</v>
-      </c>
-      <c r="M80" s="14">
-        <v>1044423.49</v>
-      </c>
-      <c r="N80" s="13">
-        <v>10611</v>
-      </c>
-      <c r="O80" s="14">
-        <v>173084</v>
-      </c>
-      <c r="P80" s="13">
-        <v>10611</v>
-      </c>
-      <c r="Q80" s="14">
-        <v>391767</v>
-      </c>
-      <c r="R80" s="13">
-        <v>10611</v>
-      </c>
-      <c r="S80" s="14">
-        <v>2283613</v>
-      </c>
+      <c r="B80" s="13"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="14"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
